--- a/xlsx/中国大陆对维基媒体的封锁_intext.xlsx
+++ b/xlsx/中国大陆对维基媒体的封锁_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>中国大陆对维基媒体的封锁</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%85%AB%E5%8D%80</t>
   </si>
   <si>
-    <t>東八區</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_中国大陆对维基媒体的封锁</t>
+    <t>东八区</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_中国大陆对维基媒体的封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2%E6%9C%8D%E5%8B%99%E4%BE%9B%E6%87%89%E5%95%86</t>
   </si>
   <si>
-    <t>互聯網服務供應商</t>
+    <t>互联网服务供应商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikipedia_talk:%E7%8B%80%E6%B3%81%E5%9B%9E%E5%A0%B1</t>
   </si>
   <si>
-    <t>Wikipedia talk-狀況回報</t>
+    <t>Wikipedia talk-状况回报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%BD%91%E8%BD%AF%E4%BB%B6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikinews.org/wiki/%E7%B6%B2%E8%B7%AF%E9%95%B7%E5%9F%8E%E5%B0%81%E9%8E%96%E8%BF%91%E4%B8%80%E5%B9%B4_%E4%B8%AD%E5%9C%8B%E5%86%8D%E5%BA%A6%E8%A7%A3%E5%B0%81%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>n-網路長城封鎖近一年 中國再度解封維基</t>
+    <t>n-网路长城封锁近一年 中国再度解封维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
@@ -203,9 +203,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>中文維基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Dns</t>
   </si>
   <si>
@@ -221,7 +218,7 @@
     <t>https://zh.wikinews.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E8%A2%AB%E5%B1%8F%E8%94%BD%EF%BC%8C%E6%AF%8F%E6%97%A5%E9%98%85%E8%AF%BB%E9%87%8F%E5%87%8F%E5%B0%91%E5%8D%83%E4%BD%99%E4%B8%87</t>
   </si>
   <si>
-    <t>n-中文维基被屏蔽，每日阅读量减少千余万</t>
+    <t>n-中文维基被屏蔽，每日阅读量减少千馀万</t>
   </si>
   <si>
     <t>https://zh.wikinews.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A%E5%85%A8%E7%AB%99%E5%86%8D%E9%81%AD%E4%B8%AD%E5%9B%BD%E6%94%BF%E5%BA%9C%E5%B0%81%E9%94%81</t>
@@ -275,9 +272,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
   </si>
   <si>
-    <t>维基媒体基金会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2</t>
   </si>
   <si>
@@ -407,21 +401,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>吉米·威爾士</t>
+    <t>吉米·威尔士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E5%B0%94%E5%A3%AB</t>
   </si>
   <si>
-    <t>吉米·威尔士</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%9A%86%E5%9D%A1</t>
   </si>
   <si>
@@ -449,19 +440,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E4%B8%96%E6%BE%A4_(%E6%99%82%E4%BA%8B%E8%A9%95%E8%AB%96%E5%93%A1)</t>
   </si>
   <si>
-    <t>黃世澤 (時事評論員)</t>
+    <t>黄世泽 (时事评论员)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E6%96%B9%E5%BC%8F</t>
@@ -479,31 +470,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
-    <t>繁體中文</t>
+    <t>繁体中文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E9%AB%94%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
-    <t>簡體中文</t>
+    <t>简体中文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>海峽兩岸關係</t>
+    <t>海峡两岸关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%B2%B8%E4%B8%89%E5%9C%B0</t>
   </si>
   <si>
-    <t>兩岸三地</t>
+    <t>两岸三地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93</t>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E5%AF%A9%E6%9F%A5%E8%BE%AD%E5%BD%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華人民共和國審查辭彙列表</t>
+    <t>中华人民共和国审查辞汇列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russian_Internet_blacklist</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C%E7%81%A3</t>
   </si>
   <si>
-    <t>海盜灣</t>
+    <t>海盗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E6%8E%A8%E7%89%B9%E7%9A%84%E5%AE%A1%E6%9F%A5</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A7%A3%E5%AF%86</t>
   </si>
   <si>
-    <t>維基解密</t>
+    <t>维基解密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E7%9A%84%E5%AE%A1%E6%9F%A5%E5%92%8C%E5%B0%81%E9%94%81</t>
@@ -1960,7 +1951,7 @@
         <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -1986,10 +1977,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2015,10 +2006,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2044,10 +2035,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2073,10 +2064,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2102,10 +2093,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -2131,10 +2122,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2160,10 +2151,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2189,10 +2180,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2218,10 +2209,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>9</v>
@@ -2247,10 +2238,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2276,10 +2267,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2305,10 +2296,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2334,10 +2325,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
         <v>18</v>
@@ -2363,10 +2354,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2392,10 +2383,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2421,10 +2412,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2450,10 +2441,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2479,10 +2470,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2508,10 +2499,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2537,10 +2528,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2566,10 +2557,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2595,10 +2586,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2624,10 +2615,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2653,10 +2644,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2682,10 +2673,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2711,10 +2702,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -2740,10 +2731,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2769,10 +2760,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2798,10 +2789,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2827,10 +2818,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2856,10 +2847,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2885,10 +2876,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2914,10 +2905,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
@@ -2943,10 +2934,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
@@ -2972,10 +2963,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3001,10 +2992,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>21</v>
@@ -3030,10 +3021,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3059,10 +3050,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3088,10 +3079,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3117,10 +3108,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3146,10 +3137,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -3175,10 +3166,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3204,10 +3195,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3233,10 +3224,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3262,10 +3253,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3291,10 +3282,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3320,10 +3311,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3349,10 +3340,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3378,10 +3369,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3407,10 +3398,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3436,10 +3427,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3465,10 +3456,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>48</v>
@@ -3523,10 +3514,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3552,10 +3543,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3581,10 +3572,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3610,10 +3601,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -3639,10 +3630,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3668,10 +3659,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3697,10 +3688,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3726,10 +3717,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -3755,10 +3746,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -3784,10 +3775,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3813,10 +3804,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3842,10 +3833,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>16</v>
@@ -3871,10 +3862,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -3900,10 +3891,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3929,10 +3920,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3958,10 +3949,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3987,10 +3978,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4016,10 +4007,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4045,10 +4036,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4074,10 +4065,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4103,10 +4094,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4132,10 +4123,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4161,10 +4152,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4190,10 +4181,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4219,10 +4210,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4248,10 +4239,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4277,10 +4268,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4306,10 +4297,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4335,10 +4326,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4364,10 +4355,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4393,10 +4384,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4422,10 +4413,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4451,10 +4442,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4480,10 +4471,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4509,10 +4500,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4538,10 +4529,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
